--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/33/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/33/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2992992992992993</v>
+        <v>0.8287828782878288</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.1161161161161</v>
+        <v>1431.463146314632</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03623623623623624</v>
+        <v>0.04812481248124813</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1781781781781782</v>
+        <v>0.4211421142114212</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642.6426426426427</v>
+        <v>1230.803080308031</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>283.2832832832833</v>
+        <v>690.8190819081908</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.03703703703704</v>
+        <v>638.8253825382537</v>
       </c>
     </row>
   </sheetData>
